--- a/2023/Master/Placement Information (2022-23) (Responses) (6).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (6).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CE87D-44CE-4336-8A87-74799D846F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB30A839-21CE-48C4-BE8E-FB9F2B995446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,9 +1328,9 @@
   </sheetPr>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="123" zoomScaleNormal="53" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3944,7 +3944,7 @@
   </sheetPr>
   <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A234" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
